--- a/flows/AMLP_fund_flow_data.xlsx
+++ b/flows/AMLP_fund_flow_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3398"/>
+  <dimension ref="A1:B3415"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34415,6 +34415,176 @@
         <v>2.243</v>
       </c>
     </row>
+    <row r="3399">
+      <c r="A3399" t="inlineStr">
+        <is>
+          <t>2024-02-21</t>
+        </is>
+      </c>
+      <c r="B3399" t="n">
+        <v>-29.562</v>
+      </c>
+    </row>
+    <row r="3400">
+      <c r="A3400" t="inlineStr">
+        <is>
+          <t>2024-02-22</t>
+        </is>
+      </c>
+      <c r="B3400" t="n">
+        <v>-3.41925</v>
+      </c>
+    </row>
+    <row r="3401">
+      <c r="A3401" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B3401" t="n">
+        <v>27.588</v>
+      </c>
+    </row>
+    <row r="3402">
+      <c r="A3402" t="inlineStr">
+        <is>
+          <t>2024-02-26</t>
+        </is>
+      </c>
+      <c r="B3402" t="n">
+        <v>4.605</v>
+      </c>
+    </row>
+    <row r="3403">
+      <c r="A3403" t="inlineStr">
+        <is>
+          <t>2024-02-27</t>
+        </is>
+      </c>
+      <c r="B3403" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3404">
+      <c r="A3404" t="inlineStr">
+        <is>
+          <t>2024-02-28</t>
+        </is>
+      </c>
+      <c r="B3404" t="n">
+        <v>18.336</v>
+      </c>
+    </row>
+    <row r="3405">
+      <c r="A3405" t="inlineStr">
+        <is>
+          <t>2024-02-29</t>
+        </is>
+      </c>
+      <c r="B3405" t="n">
+        <v>-22.72</v>
+      </c>
+    </row>
+    <row r="3406">
+      <c r="A3406" t="inlineStr">
+        <is>
+          <t>2024-03-01</t>
+        </is>
+      </c>
+      <c r="B3406" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3407">
+      <c r="A3407" t="inlineStr">
+        <is>
+          <t>2024-03-04</t>
+        </is>
+      </c>
+      <c r="B3407" t="n">
+        <v>2.3085</v>
+      </c>
+    </row>
+    <row r="3408">
+      <c r="A3408" t="inlineStr">
+        <is>
+          <t>2024-03-05</t>
+        </is>
+      </c>
+      <c r="B3408" t="n">
+        <v>4.612</v>
+      </c>
+    </row>
+    <row r="3409">
+      <c r="A3409" t="inlineStr">
+        <is>
+          <t>2024-03-06</t>
+        </is>
+      </c>
+      <c r="B3409" t="n">
+        <v>23.2</v>
+      </c>
+    </row>
+    <row r="3410">
+      <c r="A3410" t="inlineStr">
+        <is>
+          <t>2024-03-07</t>
+        </is>
+      </c>
+      <c r="B3410" t="n">
+        <v>23.45</v>
+      </c>
+    </row>
+    <row r="3411">
+      <c r="A3411" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="B3411" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3412">
+      <c r="A3412" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="B3412" t="n">
+        <v>3.48675</v>
+      </c>
+    </row>
+    <row r="3413">
+      <c r="A3413" t="inlineStr">
+        <is>
+          <t>2024-03-12</t>
+        </is>
+      </c>
+      <c r="B3413" t="n">
+        <v>1.164</v>
+      </c>
+    </row>
+    <row r="3414">
+      <c r="A3414" t="inlineStr">
+        <is>
+          <t>2024-03-13</t>
+        </is>
+      </c>
+      <c r="B3414" t="n">
+        <v>2.3325</v>
+      </c>
+    </row>
+    <row r="3415">
+      <c r="A3415" t="inlineStr">
+        <is>
+          <t>2024-03-14</t>
+        </is>
+      </c>
+      <c r="B3415" t="n">
+        <v>8.17075</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
